--- a/hostID_Automation_withTestNG/TestData/TestData_HostID.xlsx
+++ b/hostID_Automation_withTestNG/TestData/TestData_HostID.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="13365" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Financial_Institution" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>edit_Initials</t>
   </si>
@@ -37,6 +38,66 @@
   </si>
   <si>
     <t>correctNetworkPassword</t>
+  </si>
+  <si>
+    <t>Institution_Name</t>
+  </si>
+  <si>
+    <t>FI_Number</t>
+  </si>
+  <si>
+    <t>Address_Line1</t>
+  </si>
+  <si>
+    <t>Address_Line2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>ZIP_SUFFIX</t>
+  </si>
+  <si>
+    <t>Corporate_Structure</t>
+  </si>
+  <si>
+    <t>TAX_Identification_Number</t>
+  </si>
+  <si>
+    <t>OmniBus_Account_Number</t>
+  </si>
+  <si>
+    <t>Special_Instructions</t>
+  </si>
+  <si>
+    <t>Omni_Serve</t>
+  </si>
+  <si>
+    <t>NSCC_ID</t>
+  </si>
+  <si>
+    <t>SuccessMessage_FailureMessage</t>
+  </si>
+  <si>
+    <t>MessageKeyword</t>
+  </si>
+  <si>
+    <t>AccountExist</t>
+  </si>
+  <si>
+    <t>WrongTaxIdNumber</t>
+  </si>
+  <si>
+    <t>WrongNSCCID</t>
+  </si>
+  <si>
+    <t>Success</t>
   </si>
 </sst>
 </file>
@@ -377,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -436,12 +497,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/hostID_Automation_withTestNG/TestData/TestData_HostID.xlsx
+++ b/hostID_Automation_withTestNG/TestData/TestData_HostID.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="13365" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="18360" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="Financial_Institution" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Access_Control" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M22"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>edit_Initials</t>
   </si>
@@ -98,13 +97,124 @@
   </si>
   <si>
     <t>Success</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>CreateTab_VisibleLinks</t>
+  </si>
+  <si>
+    <t>FI_Manager</t>
+  </si>
+  <si>
+    <t>CreateTab_InvisibleLinks</t>
+  </si>
+  <si>
+    <t>ImportTab_VisibleLinks</t>
+  </si>
+  <si>
+    <t>ImportTab_InvisibleLinks</t>
+  </si>
+  <si>
+    <t>SearchTab_VisibleLinks</t>
+  </si>
+  <si>
+    <t>SearchTab_InvisibleLinks</t>
+  </si>
+  <si>
+    <t>ExportedTab_VisibleLinks</t>
+  </si>
+  <si>
+    <t>ExportedTab_InvisibleLinks</t>
+  </si>
+  <si>
+    <t>JobsTab_VisibleLinks</t>
+  </si>
+  <si>
+    <t>JobsTab_InvisibleLinks</t>
+  </si>
+  <si>
+    <t>WorkOrderTab_Visible</t>
+  </si>
+  <si>
+    <t>WorkOrderTab_Invisible</t>
+  </si>
+  <si>
+    <t>Institution-&gt;Research Request</t>
+  </si>
+  <si>
+    <t>Payout-&gt;Monthly Position File-&gt;Quarterly RK Asset Based Comp</t>
+  </si>
+  <si>
+    <t>Payout-&gt;Monthly Position File-&gt;Quarterly RK Asset Based Comp-&gt;TPA-BIN Association</t>
+  </si>
+  <si>
+    <t>Payouts-&gt;Institution-&gt;Line Items-&gt;Payments-&gt;Adjustments-&gt;Exclusions-&gt;Billing Summaries-&gt;TPA/BIN Association</t>
+  </si>
+  <si>
+    <t>Payouts-&gt;Statements</t>
+  </si>
+  <si>
+    <t>View Jobs-&gt;Schedule Monthly Import Job-&gt;Schedule Transform Job-&gt;Schedule Validation Job-&gt;Schedule MPF Import Job</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Billing-&gt;Exclusion-&gt;System Compatible Invoice-&gt;Omnibus Recordkeeping Daily Avg Assets</t>
+  </si>
+  <si>
+    <t>Assigner</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Approver_Sr_Approver</t>
+  </si>
+  <si>
+    <t>Host_OPS_Processor</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Research Request-&gt;Billing-&gt;Exclusion-&gt;System Compatible Invoice-&gt;Omnibus Recordkeeping Daily Avg Assets</t>
+  </si>
+  <si>
+    <t>Institution-&gt;System Compatible Invoice</t>
+  </si>
+  <si>
+    <t>Research Request-&gt;Billing-&gt;Exclusion-&gt;Omnibus Recordkeeping Daily Avg Assets</t>
+  </si>
+  <si>
+    <t>Institution-&gt;Billing-&gt;Exclusion-&gt;System Compatible Invoice-&gt;Omnibus Recordkeeping Daily Avg Assets</t>
+  </si>
+  <si>
+    <t>TPA-BIN Association</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Payout-&gt;TPA-BIN Association</t>
+  </si>
+  <si>
+    <t>Monthly Position File-&gt;Quarterly RK Asset Based Comp</t>
+  </si>
+  <si>
+    <t>Accessor_TAB_Order</t>
+  </si>
+  <si>
+    <t>Payouts-&gt;Bulk-&gt;Adjustments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,16 +222,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,12 +253,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,9 +641,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -587,10 +731,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,12 +738,277 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="110.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>